--- a/indata/pooled_effects.xlsx
+++ b/indata/pooled_effects.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cm1nm\Dropbox\CONTACT\indata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A2C8D49-6BD8-4831-B30A-37600C8866F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42968E1D-57D7-4D72-AD8B-F2608675C7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AE4ECCF2-2324-4BF2-A164-1537F8F763CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{AE4ECCF2-2324-4BF2-A164-1537F8F763CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>NOTES - CONTACT STUDY</t>
   </si>
@@ -287,12 +288,57 @@
   <si>
     <t>Extracted from text in main draft. Different numbers in Table 4: 3.29 [0.21; 50.40]</t>
   </si>
+  <si>
+    <t>Negative screening after re-assessment</t>
+  </si>
+  <si>
+    <t>CONTACT_Main_V0.3 Table 3</t>
+  </si>
+  <si>
+    <t>Started on TPT</t>
+  </si>
+  <si>
+    <t>Completed TPT</t>
+  </si>
+  <si>
+    <t>Final TB diagnosis</t>
+  </si>
+  <si>
+    <t>OR [95% CI]</t>
+  </si>
+  <si>
+    <t>Cascade step</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <r>
+      <t>Positive after re-assessment</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>CONTACT_Main_V0.3 Table 4</t>
+  </si>
+  <si>
+    <t>CONTACT_Main_V0.3 Results Paragraph 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +360,44 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,7 +407,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -331,17 +415,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,7 +750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -658,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202DE8B8-9AF2-4F73-9C93-FAEAC6235D47}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +776,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -720,7 +822,7 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -737,7 +839,7 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
@@ -771,7 +873,7 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
@@ -873,5 +975,94 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06286567-B9C8-4635-AE7A-B7C20DAB2869}">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>